--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H2">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J2">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N2">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q2">
-        <v>17.17774701813956</v>
+        <v>28.45130047457422</v>
       </c>
       <c r="R2">
-        <v>154.599723163256</v>
+        <v>256.061704271168</v>
       </c>
       <c r="S2">
-        <v>0.443446125883497</v>
+        <v>0.3018438973383991</v>
       </c>
       <c r="T2">
-        <v>0.443446125883497</v>
+        <v>0.3018438973383991</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.43712066666667</v>
+        <v>10.46510533333333</v>
       </c>
       <c r="H3">
-        <v>34.311362</v>
+        <v>31.395316</v>
       </c>
       <c r="I3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="J3">
-        <v>0.5796330080444665</v>
+        <v>0.5554075997074865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N3">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q3">
-        <v>5.275463404465333</v>
+        <v>23.90049011811067</v>
       </c>
       <c r="R3">
-        <v>47.47917064018801</v>
+        <v>215.104411062996</v>
       </c>
       <c r="S3">
-        <v>0.1361868821609695</v>
+        <v>0.2535637023690875</v>
       </c>
       <c r="T3">
-        <v>0.1361868821609695</v>
+        <v>0.2535637023690875</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>17.262925</v>
       </c>
       <c r="I4">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J4">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N4">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q4">
-        <v>8.642564478877778</v>
+        <v>15.64413832448889</v>
       </c>
       <c r="R4">
-        <v>77.78308030990001</v>
+        <v>140.7972449204</v>
       </c>
       <c r="S4">
-        <v>0.2231091034120816</v>
+        <v>0.1659708907360729</v>
       </c>
       <c r="T4">
-        <v>0.2231091034120816</v>
+        <v>0.1659708907360729</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>17.262925</v>
       </c>
       <c r="I5">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="J5">
-        <v>0.2916282118266253</v>
+        <v>0.3053945925621632</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N5">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q5">
-        <v>2.654220753216667</v>
+        <v>13.14184473799167</v>
       </c>
       <c r="R5">
-        <v>23.88798677895</v>
+        <v>118.276602641925</v>
       </c>
       <c r="S5">
-        <v>0.06851910841454367</v>
+        <v>0.1394237018260902</v>
       </c>
       <c r="T5">
-        <v>0.06851910841454367</v>
+        <v>0.1394237018260902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H6">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I6">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J6">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N6">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O6">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P6">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q6">
-        <v>3.414214297190666</v>
+        <v>5.836375513589333</v>
       </c>
       <c r="R6">
-        <v>30.727928674716</v>
+        <v>52.527379622304</v>
       </c>
       <c r="S6">
-        <v>0.08813845619140012</v>
+        <v>0.06191893874680848</v>
       </c>
       <c r="T6">
-        <v>0.08813845619140014</v>
+        <v>0.0619189387468085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.273219</v>
+        <v>2.146766</v>
       </c>
       <c r="H7">
-        <v>6.819656999999999</v>
+        <v>6.440298</v>
       </c>
       <c r="I7">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="J7">
-        <v>0.1152066857836043</v>
+        <v>0.1139338891693565</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N7">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O7">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P7">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q7">
-        <v>1.048540449502</v>
+        <v>4.902842153482</v>
       </c>
       <c r="R7">
-        <v>9.436864045518</v>
+        <v>44.125579381338</v>
       </c>
       <c r="S7">
-        <v>0.02706822959220419</v>
+        <v>0.05201495042254804</v>
       </c>
       <c r="T7">
-        <v>0.02706822959220419</v>
+        <v>0.05201495042254804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H8">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I8">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J8">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N8">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O8">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P8">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q8">
-        <v>0.4010311525795555</v>
+        <v>1.294169072448</v>
       </c>
       <c r="R8">
-        <v>3.609280373216</v>
+        <v>11.647521652032</v>
       </c>
       <c r="S8">
-        <v>0.01035267959076382</v>
+        <v>0.01373002394008744</v>
       </c>
       <c r="T8">
-        <v>0.01035267959076382</v>
+        <v>0.01373002394008744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2670106666666667</v>
+        <v>0.4760280000000001</v>
       </c>
       <c r="H9">
-        <v>0.8010320000000001</v>
+        <v>1.428084</v>
       </c>
       <c r="I9">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="J9">
-        <v>0.0135320943453039</v>
+        <v>0.02526391856099382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N9">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O9">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P9">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q9">
-        <v>0.1231608060853333</v>
+        <v>1.087165599156</v>
       </c>
       <c r="R9">
-        <v>1.108447254768</v>
+        <v>9.784490392404001</v>
       </c>
       <c r="S9">
-        <v>0.003179414754540076</v>
+        <v>0.01153389462090638</v>
       </c>
       <c r="T9">
-        <v>0.003179414754540076</v>
+        <v>0.01153389462090638</v>
       </c>
     </row>
   </sheetData>
